--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\API_TEST_FRAME\samples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022CA35-1CB2-478B-908F-25F3AD4C5E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7710C7-7D13-428A-91AA-B79F3A288ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>python应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习java编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +103,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,21 +134,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -421,69 +506,119 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>100</v>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
